--- a/Documentation/Rapport/Protocole_de_Test_GUESS_WHO.xlsx
+++ b/Documentation/Rapport/Protocole_de_Test_GUESS_WHO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1\Desktop\GuessWho\Documentation\Rapport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inconnu\Desktop\GuessWho\Documentation\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFB121B-AA04-49E2-AF26-070FB6C6F5AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D8CC9-3A9D-4870-B6C9-AB8558E114B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="262">
   <si>
     <t>ID du test</t>
   </si>
@@ -152,48 +152,6 @@
   </si>
   <si>
     <t>TC_36</t>
-  </si>
-  <si>
-    <t>TC_37</t>
-  </si>
-  <si>
-    <t>TC_38</t>
-  </si>
-  <si>
-    <t>TC_39</t>
-  </si>
-  <si>
-    <t>TC_40</t>
-  </si>
-  <si>
-    <t>TC_41</t>
-  </si>
-  <si>
-    <t>TC_42</t>
-  </si>
-  <si>
-    <t>TC_43</t>
-  </si>
-  <si>
-    <t>TC_44</t>
-  </si>
-  <si>
-    <t>TC_45</t>
-  </si>
-  <si>
-    <t>TC_46</t>
-  </si>
-  <si>
-    <t>TC_47</t>
-  </si>
-  <si>
-    <t>TC_48</t>
-  </si>
-  <si>
-    <t>TC_49</t>
-  </si>
-  <si>
-    <t>TC_50</t>
   </si>
   <si>
     <t>Cliquer sur le champ
@@ -389,9 +347,6 @@
 </t>
   </si>
   <si>
-    <t>TC_51</t>
-  </si>
-  <si>
     <t>La musique continue tant qu'on est pas en jeu</t>
   </si>
   <si>
@@ -491,9 +446,6 @@
   </si>
   <si>
     <t>Ouverture de la page "Settings"</t>
-  </si>
-  <si>
-    <t>TC_52</t>
   </si>
   <si>
     <t>Bouton "Generation" de la page "Creator"</t>
@@ -778,10 +730,6 @@
     <t>Démarrage d'une partie</t>
   </si>
   <si>
-    <t>Afficher 24 portraits
-Donc StateSelectingPortrait devrait être vrai</t>
-  </si>
-  <si>
     <t>Aller à la dernière/première page des règles</t>
   </si>
   <si>
@@ -797,6 +745,148 @@
   </si>
   <si>
     <t>Se déplacer dans l'application sans cliquer sur "Play"</t>
+  </si>
+  <si>
+    <t>Affichage de 48 portraits prêt à être séléctionnés</t>
+  </si>
+  <si>
+    <t>Afficher 48 portraits
+Donc StateSelectingPortrait devrait être vrai</t>
+  </si>
+  <si>
+    <t>Les 48 portraits sont affichés les joueurs peuvent choisir leur cible</t>
+  </si>
+  <si>
+    <t>Survol des portraits</t>
+  </si>
+  <si>
+    <t>Lorsqu'un personnage est survolé sa position Y augmente avec une interpolation</t>
+  </si>
+  <si>
+    <t>Survoler un portrait</t>
+  </si>
+  <si>
+    <t>DrawPortraitGrid()</t>
+  </si>
+  <si>
+    <t>Se trouver dans une partie</t>
+  </si>
+  <si>
+    <t>Survol d'un portrait</t>
+  </si>
+  <si>
+    <t>Au survol le portrait est élevé fluidement sur l'axe Y</t>
+  </si>
+  <si>
+    <t>Le portrait s'élève</t>
+  </si>
+  <si>
+    <t>Lorsqu'un personnage est cliqué il est défini comme la cible du joueur</t>
+  </si>
+  <si>
+    <t>Cliquer sur un portrait</t>
+  </si>
+  <si>
+    <t>StateSelectingPortrait = true</t>
+  </si>
+  <si>
+    <t>Clic d'un portrait</t>
+  </si>
+  <si>
+    <t>Le tour change et le joueur a comme Target le portrait cliqué</t>
+  </si>
+  <si>
+    <t>Clic sur portrait (sélection)</t>
+  </si>
+  <si>
+    <t>Clic sur portrait (élimination)</t>
+  </si>
+  <si>
+    <t>Lorsqu'un personnage est cliqué il est éliminé</t>
+  </si>
+  <si>
+    <t>DrawGame()</t>
+  </si>
+  <si>
+    <t>DrawGame()
+DrawPortraitGrid()</t>
+  </si>
+  <si>
+    <t>Le portrait est éliminé et s'affiche en noir</t>
+  </si>
+  <si>
+    <t>Lorsqu'un personnage éliminé est cliqué il n'est plus éliminé</t>
+  </si>
+  <si>
+    <t>Cliquer sur un portrait éliminé</t>
+  </si>
+  <si>
+    <t>Clic d'un portrait éliminé</t>
+  </si>
+  <si>
+    <t>Le portrait éliminé n'est plus en noir et n'est plus éliminé</t>
+  </si>
+  <si>
+    <t>Regénération (Recommencer une partie)</t>
+  </si>
+  <si>
+    <t>Redémarrer une partie</t>
+  </si>
+  <si>
+    <t>Generate()</t>
+  </si>
+  <si>
+    <t>Dans une partie, taper "R"</t>
+  </si>
+  <si>
+    <t>Touche "R"</t>
+  </si>
+  <si>
+    <t>La partie recommence
+De nouveaux portraits sont créés
+Les portraits ne sont plus éliminés
+StateSelectingPortrait = true</t>
+  </si>
+  <si>
+    <t>Échange de plateau</t>
+  </si>
+  <si>
+    <t>Une fois que les deux joueurs ont choisi une cible les plateaux s'inverse
+(changement de fond)</t>
+  </si>
+  <si>
+    <t>Lancer une partie, les deux joueurs sélectionne une cible</t>
+  </si>
+  <si>
+    <t>TextureLoader()
+DrawGame()</t>
+  </si>
+  <si>
+    <t>Les deux joueurs ont choisi une cible à faire deviner</t>
+  </si>
+  <si>
+    <t>Target des deux joueurs</t>
+  </si>
+  <si>
+    <t>Le fond change inversant les couleurs, indiquant que les joueurs se sont échangés leurs plateaux</t>
+  </si>
+  <si>
+    <t>Le fond change inversant les couleurs</t>
+  </si>
+  <si>
+    <t>Désactivation de zones</t>
+  </si>
+  <si>
+    <t>Lorsque c'est le tour d'un joueur le plateau de l'autre est grisé le rendant non cliquable et affichant la cible à décrire</t>
+  </si>
+  <si>
+    <t>Clic droit</t>
+  </si>
+  <si>
+    <t>Le plateau du joueur qui n'a pas le tour est grisé, désactivé et affiche la cible que l'adversaire doit deviner</t>
+  </si>
+  <si>
+    <t>Le plateau du joueur qui n'a pas le tour est grisé, désactivé et affiche la cible que l'adversaire doit deviner pour répondre à la question</t>
   </si>
 </sst>
 </file>
@@ -861,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -888,13 +978,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,9 +1012,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -953,9 +1052,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,26 +1087,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,26 +1122,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1233,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1286,28 +1351,28 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,28 +1380,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,28 +1409,28 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1373,28 +1438,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1402,28 +1467,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,28 +1496,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="G7" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,28 +1525,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1489,28 +1554,28 @@
         <v>15</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,28 +1583,28 @@
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,28 +1612,28 @@
         <v>17</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="I11" s="8" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,28 +1641,28 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,28 +1670,28 @@
         <v>19</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="I13" s="8" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1634,28 +1699,28 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,57 +1728,57 @@
         <v>21</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>153</v>
+      <c r="B16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,57 +1786,57 @@
         <v>23</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>127</v>
+      <c r="H18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="7" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,28 +1844,28 @@
         <v>25</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -1808,28 +1873,28 @@
         <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>167</v>
+        <v>150</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="7" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1837,28 +1902,28 @@
         <v>27</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1866,28 +1931,28 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,28 +1960,28 @@
         <v>29</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,28 +1989,28 @@
         <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -1953,28 +2018,28 @@
         <v>31</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,28 +2047,28 @@
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,28 +2076,28 @@
         <v>33</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2040,28 +2105,28 @@
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,28 +2134,28 @@
         <v>35</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2098,324 +2163,466 @@
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="7" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="B37" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Rapport/Protocole_de_Test_GUESS_WHO.xlsx
+++ b/Documentation/Rapport/Protocole_de_Test_GUESS_WHO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inconnu\Desktop\GuessWho\Documentation\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D8CC9-3A9D-4870-B6C9-AB8558E114B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9684C1-F8A9-4F85-979F-B93D587B2C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="287">
   <si>
     <t>ID du test</t>
   </si>
@@ -888,12 +888,88 @@
   <si>
     <t>Le plateau du joueur qui n'a pas le tour est grisé, désactivé et affiche la cible que l'adversaire doit deviner pour répondre à la question</t>
   </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>TC_40</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>TC_42</t>
+  </si>
+  <si>
+    <t>TC_43</t>
+  </si>
+  <si>
+    <t>TC_44</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t>TC_46</t>
+  </si>
+  <si>
+    <t>TC_47</t>
+  </si>
+  <si>
+    <t>TC_48</t>
+  </si>
+  <si>
+    <t>TC_49</t>
+  </si>
+  <si>
+    <t>TC_50</t>
+  </si>
+  <si>
+    <t>TC_51</t>
+  </si>
+  <si>
+    <t>TC_52</t>
+  </si>
+  <si>
+    <t>TC_53</t>
+  </si>
+  <si>
+    <t>TC_54</t>
+  </si>
+  <si>
+    <t>TC_55</t>
+  </si>
+  <si>
+    <t>Enclenchement de l'écran de victoire</t>
+  </si>
+  <si>
+    <t>Lorsque la cible d'un des joueurs correspond au portrait restant sur le plateau de l'adversaire : l'écran de victoire s'affiche</t>
+  </si>
+  <si>
+    <t>Masquer tout les portraits sauf la cible de l'adversaire</t>
+  </si>
+  <si>
+    <t>DrawGame()
+DrawWinScreen()</t>
+  </si>
+  <si>
+    <t>Tout les portraits masqués</t>
+  </si>
+  <si>
+    <t>L'écran de victoire s'affiche avec les bons texte :"Joueur X a gagné/perdu" des deux côtés de l'écran</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +981,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -951,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -978,22 +1060,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2313,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -2274,7 +2342,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
@@ -2303,7 +2371,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="7" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -2332,7 +2400,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -2361,270 +2429,300 @@
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
+    <row r="38" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>